--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_CA_CHOICE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
   <si>
     <t>VIN</t>
   </si>
@@ -149,9 +149,6 @@
     <t>4.5L V10</t>
   </si>
   <si>
-    <t>CA_CH</t>
-  </si>
-  <si>
     <t>SYMBOL_2000_CHOICE_T</t>
   </si>
   <si>
@@ -204,6 +201,12 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>CA_MAKE</t>
+  </si>
+  <si>
+    <t>CA_MAKE_TEXT</t>
   </si>
 </sst>
 </file>
@@ -549,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AH4" sqref="AH4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +654,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>25</v>
@@ -660,51 +663,51 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3">
         <v>2005</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -719,13 +722,13 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>29</v>
@@ -767,7 +770,7 @@
         <v>37</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA2" s="3">
         <v>39</v>
@@ -776,22 +779,22 @@
         <v>39</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI2">
         <v>20000101</v>
@@ -803,24 +806,24 @@
         <v>38</v>
       </c>
       <c r="AL2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3">
         <v>2005</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -835,13 +838,13 @@
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>29</v>
@@ -883,7 +886,7 @@
         <v>37</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA3" s="3">
         <v>39</v>
@@ -892,51 +895,51 @@
         <v>39</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI3">
         <v>20000101</v>
       </c>
       <c r="AJ3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="s">
         <v>38</v>
       </c>
       <c r="AL3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3">
         <v>2005</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -951,13 +954,13 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>29</v>
@@ -999,7 +1002,7 @@
         <v>37</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA4" s="3">
         <v>39</v>
@@ -1008,22 +1011,22 @@
         <v>39</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI4">
         <v>20150101</v>
@@ -1035,24 +1038,24 @@
         <v>38</v>
       </c>
       <c r="AL4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3">
         <v>2005</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1067,13 +1070,13 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>29</v>
@@ -1115,7 +1118,7 @@
         <v>37</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA5" s="3">
         <v>39</v>
@@ -1124,22 +1127,22 @@
         <v>39</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI5">
         <v>20190101</v>
@@ -1151,7 +1154,7 @@
         <v>38</v>
       </c>
       <c r="AL5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
